--- a/va_facility_data_2025-02-20/Raleigh III VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Raleigh%20III%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Raleigh III VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Raleigh%20III%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R63c7f0da0ded4f1b82ac3d7288035071"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Redad6891eeb545d2916f80d208b8ce05"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2a201305a455429e932ccbc0123f6957"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re97e98e1630c4171ab8979679abfd5d7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc54adbdeaf274da18addda811d4fd1c5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7208de368fe54aae933d607d16673865"/>
   </x:sheets>
 </x:workbook>
 </file>
